--- a/output/agent_acc_counting_May.xlsx
+++ b/output/agent_acc_counting_May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Total</t>
   </si>
@@ -34,7 +34,13 @@
     <t>eva@lilydc.com.tw</t>
   </si>
   <si>
-    <t>kiki.kuo</t>
+    <t>jane.cheng</t>
+  </si>
+  <si>
+    <t>josh.chen</t>
+  </si>
+  <si>
+    <t>patrick.w</t>
   </si>
   <si>
     <t>sp0386</t>
@@ -43,18 +49,12 @@
     <t>sp0558</t>
   </si>
   <si>
-    <t>sp0851</t>
-  </si>
-  <si>
     <t>sp0880</t>
   </si>
   <si>
     <t>sp0923</t>
   </si>
   <si>
-    <t>sp1064</t>
-  </si>
-  <si>
     <t>sp1225</t>
   </si>
   <si>
@@ -64,12 +64,24 @@
     <t>sp1409</t>
   </si>
   <si>
+    <t>sp2016</t>
+  </si>
+  <si>
+    <t>sp2215</t>
+  </si>
+  <si>
     <t>sp2311</t>
   </si>
   <si>
+    <t>sp2316</t>
+  </si>
+  <si>
     <t>sp2382</t>
   </si>
   <si>
+    <t>sp2621</t>
+  </si>
+  <si>
     <t>sp2688</t>
   </si>
   <si>
@@ -79,9 +91,6 @@
     <t>sp2907</t>
   </si>
   <si>
-    <t>sp2943</t>
-  </si>
-  <si>
     <t>sp2948</t>
   </si>
   <si>
@@ -100,12 +109,15 @@
     <t>sp3341</t>
   </si>
   <si>
-    <t>sp3360</t>
+    <t>sp3342</t>
   </si>
   <si>
     <t>sp3457</t>
   </si>
   <si>
+    <t>sp99004</t>
+  </si>
+  <si>
     <t>sp99006</t>
   </si>
   <si>
@@ -115,18 +127,12 @@
     <t>sp99014</t>
   </si>
   <si>
-    <t>sp99016</t>
-  </si>
-  <si>
     <t>sp99026</t>
   </si>
   <si>
     <t>sp99029</t>
   </si>
   <si>
-    <t>sp99037</t>
-  </si>
-  <si>
     <t>sp99042</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
   </si>
   <si>
     <t>sp99062</t>
+  </si>
+  <si>
+    <t>sp99063</t>
   </si>
   <si>
     <t>sp99068</t>
@@ -515,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -560,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -577,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1474</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -594,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -611,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>613</v>
+        <v>1524</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -628,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>128</v>
+        <v>447</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -645,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -662,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>600</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -679,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -696,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -713,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>593</v>
+        <v>879</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -730,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -747,7 +756,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -764,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -781,7 +790,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>512</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -798,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>703</v>
+        <v>452</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -815,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -832,7 +841,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -849,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>431</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -866,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>611</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -883,7 +892,7 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>278</v>
+        <v>485</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -900,7 +909,7 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -917,7 +926,7 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>767</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -934,7 +943,7 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>216</v>
+        <v>886</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -951,7 +960,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -968,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>348</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -985,7 +994,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>354</v>
+        <v>650</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1002,7 +1011,7 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1019,7 +1028,7 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1036,7 +1045,7 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1053,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>447</v>
+        <v>564</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1070,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1087,7 +1096,7 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1104,7 +1113,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>53</v>
+        <v>667</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1121,7 +1130,7 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>725</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1138,7 +1147,7 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1155,7 +1164,7 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>315</v>
+        <v>1410</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1172,7 +1181,7 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>761</v>
+        <v>148</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1189,7 +1198,7 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>557</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1206,7 +1215,7 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1223,7 +1232,7 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>479</v>
+        <v>731</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1240,7 +1249,7 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>401</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1257,7 +1266,7 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1266,6 +1275,57 @@
         <v>0</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>183</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>1</v>
       </c>
     </row>

--- a/output/agent_acc_counting_May.xlsx
+++ b/output/agent_acc_counting_May.xlsx
@@ -623,13 +623,13 @@
         <v>1524</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.9960629921259843</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.9955257270693513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,13 +674,13 @@
         <v>600</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.9897959183673469</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.9906103286384976</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.9917525773195877</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.9977426636568849</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.9942528735632183</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0.9953846153846154</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0.9955022488755623</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.999290780141844</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0.972972972972973</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0.9986320109439124</v>
       </c>
     </row>
     <row r="43" spans="1:5">
